--- a/3_Extinction.xlsx.xlsx
+++ b/3_Extinction.xlsx.xlsx
@@ -14,6 +14,8 @@
     <sheet name="Ext" sheetId="5" state="visible" r:id="rId5"/>
     <sheet name="RatingExt" sheetId="6" state="visible" r:id="rId6"/>
     <sheet name="PreCond1" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet name="PreCond2" sheetId="8" state="visible" r:id="rId8"/>
+    <sheet name="RatingPreCond1" sheetId="9" state="visible" r:id="rId9"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -2963,10 +2965,6 @@
       <c r="C2" t="n">
         <v>1</v>
       </c>
-      <c r="D2" t="inlineStr"/>
-      <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr"/>
-      <c r="G2" t="inlineStr"/>
       <c r="H2" t="n">
         <v>16</v>
       </c>
@@ -2983,10 +2981,6 @@
       <c r="C3" t="n">
         <v>1</v>
       </c>
-      <c r="D3" t="inlineStr"/>
-      <c r="E3" t="inlineStr"/>
-      <c r="F3" t="inlineStr"/>
-      <c r="G3" t="inlineStr"/>
       <c r="H3" t="n">
         <v>5</v>
       </c>
@@ -3003,10 +2997,6 @@
       <c r="C4" t="n">
         <v>1</v>
       </c>
-      <c r="D4" t="inlineStr"/>
-      <c r="E4" t="inlineStr"/>
-      <c r="F4" t="inlineStr"/>
-      <c r="G4" t="inlineStr"/>
       <c r="H4" t="n">
         <v>7</v>
       </c>
@@ -3023,10 +3013,6 @@
       <c r="C5" t="n">
         <v>1</v>
       </c>
-      <c r="D5" t="inlineStr"/>
-      <c r="E5" t="inlineStr"/>
-      <c r="F5" t="inlineStr"/>
-      <c r="G5" t="inlineStr"/>
       <c r="H5" t="n">
         <v>12</v>
       </c>
@@ -3043,10 +3029,6 @@
       <c r="C6" t="n">
         <v>1</v>
       </c>
-      <c r="D6" t="inlineStr"/>
-      <c r="E6" t="inlineStr"/>
-      <c r="F6" t="inlineStr"/>
-      <c r="G6" t="inlineStr"/>
       <c r="H6" t="n">
         <v>3</v>
       </c>
@@ -3063,10 +3045,6 @@
       <c r="C7" t="n">
         <v>1</v>
       </c>
-      <c r="D7" t="inlineStr"/>
-      <c r="E7" t="inlineStr"/>
-      <c r="F7" t="inlineStr"/>
-      <c r="G7" t="inlineStr"/>
       <c r="H7" t="n">
         <v>0</v>
       </c>
@@ -3083,10 +3061,6 @@
       <c r="C8" t="n">
         <v>1</v>
       </c>
-      <c r="D8" t="inlineStr"/>
-      <c r="E8" t="inlineStr"/>
-      <c r="F8" t="inlineStr"/>
-      <c r="G8" t="inlineStr"/>
       <c r="H8" t="n">
         <v>9</v>
       </c>
@@ -3103,10 +3077,6 @@
       <c r="C9" t="n">
         <v>1</v>
       </c>
-      <c r="D9" t="inlineStr"/>
-      <c r="E9" t="inlineStr"/>
-      <c r="F9" t="inlineStr"/>
-      <c r="G9" t="inlineStr"/>
       <c r="H9" t="n">
         <v>4</v>
       </c>
@@ -3123,10 +3093,6 @@
       <c r="C10" t="n">
         <v>1</v>
       </c>
-      <c r="D10" t="inlineStr"/>
-      <c r="E10" t="inlineStr"/>
-      <c r="F10" t="inlineStr"/>
-      <c r="G10" t="inlineStr"/>
       <c r="H10" t="n">
         <v>8</v>
       </c>
@@ -3143,10 +3109,6 @@
       <c r="C11" t="n">
         <v>1</v>
       </c>
-      <c r="D11" t="inlineStr"/>
-      <c r="E11" t="inlineStr"/>
-      <c r="F11" t="inlineStr"/>
-      <c r="G11" t="inlineStr"/>
       <c r="H11" t="n">
         <v>17</v>
       </c>
@@ -3163,10 +3125,6 @@
       <c r="C12" t="n">
         <v>1</v>
       </c>
-      <c r="D12" t="inlineStr"/>
-      <c r="E12" t="inlineStr"/>
-      <c r="F12" t="inlineStr"/>
-      <c r="G12" t="inlineStr"/>
       <c r="H12" t="n">
         <v>2</v>
       </c>
@@ -3183,10 +3141,6 @@
       <c r="C13" t="n">
         <v>1</v>
       </c>
-      <c r="D13" t="inlineStr"/>
-      <c r="E13" t="inlineStr"/>
-      <c r="F13" t="inlineStr"/>
-      <c r="G13" t="inlineStr"/>
       <c r="H13" t="n">
         <v>13</v>
       </c>
@@ -3203,10 +3157,6 @@
       <c r="C14" t="n">
         <v>1</v>
       </c>
-      <c r="D14" t="inlineStr"/>
-      <c r="E14" t="inlineStr"/>
-      <c r="F14" t="inlineStr"/>
-      <c r="G14" t="inlineStr"/>
       <c r="H14" t="n">
         <v>11</v>
       </c>
@@ -3223,10 +3173,6 @@
       <c r="C15" t="n">
         <v>1</v>
       </c>
-      <c r="D15" t="inlineStr"/>
-      <c r="E15" t="inlineStr"/>
-      <c r="F15" t="inlineStr"/>
-      <c r="G15" t="inlineStr"/>
       <c r="H15" t="n">
         <v>6</v>
       </c>
@@ -3243,10 +3189,6 @@
       <c r="C16" t="n">
         <v>1</v>
       </c>
-      <c r="D16" t="inlineStr"/>
-      <c r="E16" t="inlineStr"/>
-      <c r="F16" t="inlineStr"/>
-      <c r="G16" t="inlineStr"/>
       <c r="H16" t="n">
         <v>15</v>
       </c>
@@ -3263,10 +3205,6 @@
       <c r="C17" t="n">
         <v>1</v>
       </c>
-      <c r="D17" t="inlineStr"/>
-      <c r="E17" t="inlineStr"/>
-      <c r="F17" t="inlineStr"/>
-      <c r="G17" t="inlineStr"/>
       <c r="H17" t="n">
         <v>1</v>
       </c>
@@ -3283,10 +3221,6 @@
       <c r="C18" t="n">
         <v>1</v>
       </c>
-      <c r="D18" t="inlineStr"/>
-      <c r="E18" t="inlineStr"/>
-      <c r="F18" t="inlineStr"/>
-      <c r="G18" t="inlineStr"/>
       <c r="H18" t="n">
         <v>14</v>
       </c>
@@ -3408,6 +3342,1103 @@
       </c>
       <c r="B28" t="n">
         <v>60.08409369435228</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:N28"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="inlineStr">
+        <is>
+          <t>PreCondName</t>
+        </is>
+      </c>
+      <c r="B1" t="inlineStr">
+        <is>
+          <t>TrgCol</t>
+        </is>
+      </c>
+      <c r="C1" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="D1" t="inlineStr">
+        <is>
+          <t>PreCondTriggKey.keys_raw</t>
+        </is>
+      </c>
+      <c r="E1" t="inlineStr">
+        <is>
+          <t>PreCondTriggKey.rt_mean</t>
+        </is>
+      </c>
+      <c r="F1" t="inlineStr">
+        <is>
+          <t>PreCondTriggKey.rt_raw</t>
+        </is>
+      </c>
+      <c r="G1" t="inlineStr">
+        <is>
+          <t>PreCondTriggKey.rt_std</t>
+        </is>
+      </c>
+      <c r="H1" t="inlineStr">
+        <is>
+          <t>PreCondTriggMouse.leftButton_raw</t>
+        </is>
+      </c>
+      <c r="I1" t="inlineStr">
+        <is>
+          <t>PreCondTriggMouse.midButton_raw</t>
+        </is>
+      </c>
+      <c r="J1" t="inlineStr">
+        <is>
+          <t>PreCondTriggMouse.rightButton_raw</t>
+        </is>
+      </c>
+      <c r="K1" t="inlineStr">
+        <is>
+          <t>PreCondTriggMouse.time_raw</t>
+        </is>
+      </c>
+      <c r="L1" t="inlineStr">
+        <is>
+          <t>PreCondTriggMouse.x_raw</t>
+        </is>
+      </c>
+      <c r="M1" t="inlineStr">
+        <is>
+          <t>PreCondTriggMouse.y_raw</t>
+        </is>
+      </c>
+      <c r="N1" t="inlineStr">
+        <is>
+          <t>order</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>Stimuli/Neg.BMP</t>
+        </is>
+      </c>
+      <c r="B2" t="n">
+        <v>0</v>
+      </c>
+      <c r="C2" t="n">
+        <v>1</v>
+      </c>
+      <c r="H2" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>Stimuli/Neg.BMP</t>
+        </is>
+      </c>
+      <c r="B3" t="n">
+        <v>0</v>
+      </c>
+      <c r="C3" t="n">
+        <v>1</v>
+      </c>
+      <c r="H3" t="n">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>Stimuli/Neg.BMP</t>
+        </is>
+      </c>
+      <c r="B4" t="n">
+        <v>0</v>
+      </c>
+      <c r="C4" t="n">
+        <v>1</v>
+      </c>
+      <c r="H4" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>Stimuli/Neg.BMP</t>
+        </is>
+      </c>
+      <c r="B5" t="n">
+        <v>0</v>
+      </c>
+      <c r="C5" t="n">
+        <v>1</v>
+      </c>
+      <c r="H5" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>Stimuli/Neg.BMP</t>
+        </is>
+      </c>
+      <c r="B6" t="n">
+        <v>0</v>
+      </c>
+      <c r="C6" t="n">
+        <v>1</v>
+      </c>
+      <c r="H6" t="n">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>Stimuli/Neu.BMP</t>
+        </is>
+      </c>
+      <c r="B7" t="n">
+        <v>0.4</v>
+      </c>
+      <c r="C7" t="n">
+        <v>1</v>
+      </c>
+      <c r="H7" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>Stimuli/Neu.BMP</t>
+        </is>
+      </c>
+      <c r="B8" t="n">
+        <v>0.4</v>
+      </c>
+      <c r="C8" t="n">
+        <v>1</v>
+      </c>
+      <c r="H8" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>Stimuli/Neu.BMP</t>
+        </is>
+      </c>
+      <c r="B9" t="n">
+        <v>0.4</v>
+      </c>
+      <c r="C9" t="n">
+        <v>1</v>
+      </c>
+      <c r="H9" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>Stimuli/Neu.BMP</t>
+        </is>
+      </c>
+      <c r="B10" t="n">
+        <v>0.4</v>
+      </c>
+      <c r="C10" t="n">
+        <v>1</v>
+      </c>
+      <c r="H10" t="n">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>Stimuli/Neu.BMP</t>
+        </is>
+      </c>
+      <c r="B11" t="n">
+        <v>0.4</v>
+      </c>
+      <c r="C11" t="n">
+        <v>1</v>
+      </c>
+      <c r="H11" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>Stimuli/Pos.BMP</t>
+        </is>
+      </c>
+      <c r="B12" t="n">
+        <v>0.6</v>
+      </c>
+      <c r="C12" t="n">
+        <v>1</v>
+      </c>
+      <c r="H12" t="n">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>Stimuli/Pos.BMP</t>
+        </is>
+      </c>
+      <c r="B13" t="n">
+        <v>0.6</v>
+      </c>
+      <c r="C13" t="n">
+        <v>1</v>
+      </c>
+      <c r="H13" t="n">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>Stimuli/Pos.BMP</t>
+        </is>
+      </c>
+      <c r="B14" t="n">
+        <v>0.6</v>
+      </c>
+      <c r="C14" t="n">
+        <v>1</v>
+      </c>
+      <c r="H14" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>Stimuli/Pos.BMP</t>
+        </is>
+      </c>
+      <c r="B15" t="n">
+        <v>0.6</v>
+      </c>
+      <c r="C15" t="n">
+        <v>1</v>
+      </c>
+      <c r="H15" t="n">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>Stimuli/Pos.BMP</t>
+        </is>
+      </c>
+      <c r="B16" t="n">
+        <v>0.6</v>
+      </c>
+      <c r="C16" t="n">
+        <v>1</v>
+      </c>
+      <c r="H16" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="inlineStr">
+        <is>
+          <t>Stimuli/Trig.BMP</t>
+        </is>
+      </c>
+      <c r="B17" t="n">
+        <v>0.9</v>
+      </c>
+      <c r="C17" t="n">
+        <v>1</v>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>'space'</t>
+        </is>
+      </c>
+      <c r="E17" t="n">
+        <v>1.07956600189209</v>
+      </c>
+      <c r="F17" t="n">
+        <v>1.07956600189209</v>
+      </c>
+      <c r="G17" t="n">
+        <v>0</v>
+      </c>
+      <c r="H17" t="n">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>Stimuli/Trig.BMP</t>
+        </is>
+      </c>
+      <c r="B18" t="n">
+        <v>0.9</v>
+      </c>
+      <c r="C18" t="n">
+        <v>1</v>
+      </c>
+      <c r="H18" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="inlineStr">
+        <is>
+          <t>Stimuli/Trig.BMP</t>
+        </is>
+      </c>
+      <c r="B19" t="n">
+        <v>0.9</v>
+      </c>
+      <c r="C19" t="n">
+        <v>1</v>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>'space'</t>
+        </is>
+      </c>
+      <c r="E19" t="n">
+        <v>5.133314609527588</v>
+      </c>
+      <c r="F19" t="n">
+        <v>5.133314609527588</v>
+      </c>
+      <c r="G19" t="n">
+        <v>0</v>
+      </c>
+      <c r="H19" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="inlineStr">
+        <is>
+          <t>extraInfo</t>
+        </is>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="inlineStr">
+        <is>
+          <t>Participant_ID</t>
+        </is>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>S00</t>
+        </is>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="inlineStr">
+        <is>
+          <t>Version</t>
+        </is>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>Short</t>
+        </is>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="inlineStr">
+        <is>
+          <t>Language</t>
+        </is>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>EN</t>
+        </is>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="inlineStr">
+        <is>
+          <t>date</t>
+        </is>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>2023-05-28_15h36.27.014</t>
+        </is>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="inlineStr">
+        <is>
+          <t>expName</t>
+        </is>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>TCET</t>
+        </is>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="inlineStr">
+        <is>
+          <t>psychopyVersion</t>
+        </is>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>2023.1.1</t>
+        </is>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="inlineStr">
+        <is>
+          <t>frameRate</t>
+        </is>
+      </c>
+      <c r="B28" t="n">
+        <v>60.40806857672084</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:AA14"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="inlineStr">
+        <is>
+          <t>CondName</t>
+        </is>
+      </c>
+      <c r="B1" t="inlineStr">
+        <is>
+          <t>TrgCol</t>
+        </is>
+      </c>
+      <c r="C1" t="inlineStr">
+        <is>
+          <t>FearRatingInstTextEN</t>
+        </is>
+      </c>
+      <c r="D1" t="inlineStr">
+        <is>
+          <t>FearRatingInstTextCN</t>
+        </is>
+      </c>
+      <c r="E1" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="F1" t="inlineStr">
+        <is>
+          <t>RatingKey.keys_raw</t>
+        </is>
+      </c>
+      <c r="G1" t="inlineStr">
+        <is>
+          <t>RatingKey.rt_mean</t>
+        </is>
+      </c>
+      <c r="H1" t="inlineStr">
+        <is>
+          <t>RatingKey.rt_raw</t>
+        </is>
+      </c>
+      <c r="I1" t="inlineStr">
+        <is>
+          <t>RatingKey.rt_std</t>
+        </is>
+      </c>
+      <c r="J1" t="inlineStr">
+        <is>
+          <t>Scale.response_mean</t>
+        </is>
+      </c>
+      <c r="K1" t="inlineStr">
+        <is>
+          <t>Scale.response_raw</t>
+        </is>
+      </c>
+      <c r="L1" t="inlineStr">
+        <is>
+          <t>Scale.response_std</t>
+        </is>
+      </c>
+      <c r="M1" t="inlineStr">
+        <is>
+          <t>Scale.rt_mean</t>
+        </is>
+      </c>
+      <c r="N1" t="inlineStr">
+        <is>
+          <t>Scale.rt_raw</t>
+        </is>
+      </c>
+      <c r="O1" t="inlineStr">
+        <is>
+          <t>Scale.rt_std</t>
+        </is>
+      </c>
+      <c r="P1" t="inlineStr">
+        <is>
+          <t>Submit.numClicks_mean</t>
+        </is>
+      </c>
+      <c r="Q1" t="inlineStr">
+        <is>
+          <t>Submit.numClicks_raw</t>
+        </is>
+      </c>
+      <c r="R1" t="inlineStr">
+        <is>
+          <t>Submit.numClicks_std</t>
+        </is>
+      </c>
+      <c r="S1" t="inlineStr">
+        <is>
+          <t>Submit.timesOff_raw</t>
+        </is>
+      </c>
+      <c r="T1" t="inlineStr">
+        <is>
+          <t>Submit.timesOn_raw</t>
+        </is>
+      </c>
+      <c r="U1" t="inlineStr">
+        <is>
+          <t>mouse.leftButton_raw</t>
+        </is>
+      </c>
+      <c r="V1" t="inlineStr">
+        <is>
+          <t>mouse.midButton_raw</t>
+        </is>
+      </c>
+      <c r="W1" t="inlineStr">
+        <is>
+          <t>mouse.rightButton_raw</t>
+        </is>
+      </c>
+      <c r="X1" t="inlineStr">
+        <is>
+          <t>mouse.time_raw</t>
+        </is>
+      </c>
+      <c r="Y1" t="inlineStr">
+        <is>
+          <t>mouse.x_raw</t>
+        </is>
+      </c>
+      <c r="Z1" t="inlineStr">
+        <is>
+          <t>mouse.y_raw</t>
+        </is>
+      </c>
+      <c r="AA1" t="inlineStr">
+        <is>
+          <t>order</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>Stimuli/Raw_Neg.BMP</t>
+        </is>
+      </c>
+      <c r="B2" t="n">
+        <v>0</v>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>How do you feel about this face?</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>你对这个面孔有什么感觉?（'– '表示负面恐怖的, '+'表示积极快乐的）</t>
+        </is>
+      </c>
+      <c r="E2" t="n">
+        <v>1</v>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>'space'</t>
+        </is>
+      </c>
+      <c r="G2" t="n">
+        <v>0.3672721982002258</v>
+      </c>
+      <c r="H2" t="n">
+        <v>0.3672721982002258</v>
+      </c>
+      <c r="I2" t="n">
+        <v>0</v>
+      </c>
+      <c r="J2" t="n">
+        <v>10</v>
+      </c>
+      <c r="K2" t="n">
+        <v>10</v>
+      </c>
+      <c r="L2" t="n">
+        <v>0</v>
+      </c>
+      <c r="M2" t="n">
+        <v>1.187361001968384</v>
+      </c>
+      <c r="N2" t="n">
+        <v>1.187361001968384</v>
+      </c>
+      <c r="O2" t="n">
+        <v>0</v>
+      </c>
+      <c r="P2" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q2" t="n">
+        <v>0</v>
+      </c>
+      <c r="R2" t="n">
+        <v>0</v>
+      </c>
+      <c r="S2" t="inlineStr">
+        <is>
+          <t>''</t>
+        </is>
+      </c>
+      <c r="T2" t="inlineStr">
+        <is>
+          <t>''</t>
+        </is>
+      </c>
+      <c r="U2" t="n">
+        <v>1</v>
+      </c>
+      <c r="V2" t="n">
+        <v>0</v>
+      </c>
+      <c r="W2" t="n">
+        <v>0</v>
+      </c>
+      <c r="X2" t="n">
+        <v>1.062335400027223</v>
+      </c>
+      <c r="Y2" t="n">
+        <v>0.6030092592592593</v>
+      </c>
+      <c r="Z2" t="n">
+        <v>-0.5120370370370371</v>
+      </c>
+      <c r="AA2" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>Stimuli/Raw_Neu.BMP</t>
+        </is>
+      </c>
+      <c r="B3" t="n">
+        <v>0.4</v>
+      </c>
+      <c r="C3" t="inlineStr"/>
+      <c r="D3" t="inlineStr"/>
+      <c r="E3" t="n">
+        <v>1</v>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>'space'</t>
+        </is>
+      </c>
+      <c r="G3" t="n">
+        <v>0.1364340931177139</v>
+      </c>
+      <c r="H3" t="n">
+        <v>0.1364340931177139</v>
+      </c>
+      <c r="I3" t="n">
+        <v>0</v>
+      </c>
+      <c r="J3" t="n">
+        <v>10</v>
+      </c>
+      <c r="K3" t="n">
+        <v>10</v>
+      </c>
+      <c r="L3" t="n">
+        <v>0</v>
+      </c>
+      <c r="M3" t="n">
+        <v>0.3078139126300812</v>
+      </c>
+      <c r="N3" t="n">
+        <v>0.3078139126300812</v>
+      </c>
+      <c r="O3" t="n">
+        <v>0</v>
+      </c>
+      <c r="P3" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q3" t="n">
+        <v>0</v>
+      </c>
+      <c r="R3" t="n">
+        <v>0</v>
+      </c>
+      <c r="S3" t="inlineStr">
+        <is>
+          <t>''</t>
+        </is>
+      </c>
+      <c r="T3" t="inlineStr">
+        <is>
+          <t>''</t>
+        </is>
+      </c>
+      <c r="U3" t="n">
+        <v>1</v>
+      </c>
+      <c r="V3" t="n">
+        <v>0</v>
+      </c>
+      <c r="W3" t="n">
+        <v>0</v>
+      </c>
+      <c r="X3" t="n">
+        <v>0.1759938999894075</v>
+      </c>
+      <c r="Y3" t="n">
+        <v>0.6030092592592593</v>
+      </c>
+      <c r="Z3" t="n">
+        <v>-0.5120370370370371</v>
+      </c>
+      <c r="AA3" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>Stimuli/Raw_Pos.BMP</t>
+        </is>
+      </c>
+      <c r="B4" t="n">
+        <v>0.6</v>
+      </c>
+      <c r="C4" t="inlineStr"/>
+      <c r="D4" t="inlineStr"/>
+      <c r="E4" t="n">
+        <v>1</v>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>'space'</t>
+        </is>
+      </c>
+      <c r="G4" t="n">
+        <v>0.08793230354785919</v>
+      </c>
+      <c r="H4" t="n">
+        <v>0.08793230354785919</v>
+      </c>
+      <c r="I4" t="n">
+        <v>0</v>
+      </c>
+      <c r="J4" t="n">
+        <v>10</v>
+      </c>
+      <c r="K4" t="n">
+        <v>10</v>
+      </c>
+      <c r="L4" t="n">
+        <v>0</v>
+      </c>
+      <c r="M4" t="n">
+        <v>0.2875483930110931</v>
+      </c>
+      <c r="N4" t="n">
+        <v>0.2875483930110931</v>
+      </c>
+      <c r="O4" t="n">
+        <v>0</v>
+      </c>
+      <c r="P4" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q4" t="n">
+        <v>0</v>
+      </c>
+      <c r="R4" t="n">
+        <v>0</v>
+      </c>
+      <c r="S4" t="inlineStr">
+        <is>
+          <t>''</t>
+        </is>
+      </c>
+      <c r="T4" t="inlineStr">
+        <is>
+          <t>''</t>
+        </is>
+      </c>
+      <c r="U4" t="n">
+        <v>1</v>
+      </c>
+      <c r="V4" t="n">
+        <v>0</v>
+      </c>
+      <c r="W4" t="n">
+        <v>0</v>
+      </c>
+      <c r="X4" t="n">
+        <v>0.2114670000155456</v>
+      </c>
+      <c r="Y4" t="n">
+        <v>0.6030092592592593</v>
+      </c>
+      <c r="Z4" t="n">
+        <v>-0.5120370370370371</v>
+      </c>
+      <c r="AA4" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>Stimuli/Raw_Trig.BMP</t>
+        </is>
+      </c>
+      <c r="B5" t="n">
+        <v>0.9</v>
+      </c>
+      <c r="C5" t="inlineStr"/>
+      <c r="D5" t="inlineStr"/>
+      <c r="E5" t="n">
+        <v>1</v>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>'space'</t>
+        </is>
+      </c>
+      <c r="G5" t="n">
+        <v>0.3338384032249451</v>
+      </c>
+      <c r="H5" t="n">
+        <v>0.3338384032249451</v>
+      </c>
+      <c r="I5" t="n">
+        <v>0</v>
+      </c>
+      <c r="J5" t="n">
+        <v>10</v>
+      </c>
+      <c r="K5" t="n">
+        <v>10</v>
+      </c>
+      <c r="L5" t="n">
+        <v>0</v>
+      </c>
+      <c r="M5" t="n">
+        <v>0.472949206829071</v>
+      </c>
+      <c r="N5" t="n">
+        <v>0.472949206829071</v>
+      </c>
+      <c r="O5" t="n">
+        <v>0</v>
+      </c>
+      <c r="P5" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q5" t="n">
+        <v>0</v>
+      </c>
+      <c r="R5" t="n">
+        <v>0</v>
+      </c>
+      <c r="S5" t="inlineStr">
+        <is>
+          <t>''</t>
+        </is>
+      </c>
+      <c r="T5" t="inlineStr">
+        <is>
+          <t>''</t>
+        </is>
+      </c>
+      <c r="U5" t="n">
+        <v>1</v>
+      </c>
+      <c r="V5" t="n">
+        <v>0</v>
+      </c>
+      <c r="W5" t="n">
+        <v>0</v>
+      </c>
+      <c r="X5" t="n">
+        <v>0.4037122000008821</v>
+      </c>
+      <c r="Y5" t="n">
+        <v>0.6030092592592593</v>
+      </c>
+      <c r="Z5" t="n">
+        <v>-0.5120370370370371</v>
+      </c>
+      <c r="AA5" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>extraInfo</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>Participant_ID</t>
+        </is>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>S00</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>Version</t>
+        </is>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>Short</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>Language</t>
+        </is>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>EN</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>date</t>
+        </is>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>2023-05-28_15h36.27.014</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>expName</t>
+        </is>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>TCET</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>psychopyVersion</t>
+        </is>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>2023.1.1</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>frameRate</t>
+        </is>
+      </c>
+      <c r="B14" t="n">
+        <v>60.40806857672084</v>
       </c>
     </row>
   </sheetData>
